--- a/data/현행추정부채_요구자본_자동차/20210804/자동차_비례출재_개별추산액_201912.xlsx
+++ b/data/현행추정부채_요구자본_자동차/20210804/자동차_비례출재_개별추산액_201912.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406">
   <si>
     <t>BSC_CVR_CD</t>
   </si>
@@ -26,6 +26,9 @@
     <t>INER_CHN_DVCD</t>
   </si>
   <si>
+    <t>CMSN_DVCD</t>
+  </si>
+  <si>
     <t>RN_OST_AMT</t>
   </si>
   <si>
@@ -41,6 +44,9 @@
     <t>01</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>02</t>
   </si>
   <si>
@@ -53,6 +59,9 @@
     <t>03</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>02</t>
   </si>
   <si>
@@ -65,6 +74,9 @@
     <t>99</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>03</t>
   </si>
   <si>
@@ -77,6 +89,9 @@
     <t>14</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>03</t>
   </si>
   <si>
@@ -89,6 +104,9 @@
     <t>99</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>03</t>
   </si>
   <si>
@@ -104,6 +122,9 @@
     <t>01</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
@@ -116,6 +137,9 @@
     <t>01</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>08</t>
   </si>
   <si>
@@ -128,6 +152,9 @@
     <t>01</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>08</t>
   </si>
   <si>
@@ -137,6 +164,9 @@
     <t>99</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>05</t>
   </si>
   <si>
@@ -152,6 +182,9 @@
     <t>01</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>08</t>
   </si>
   <si>
@@ -161,6 +194,9 @@
     <t>14</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>02</t>
   </si>
   <si>
@@ -173,6 +209,9 @@
     <t>14</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>03</t>
   </si>
   <si>
@@ -185,6 +224,9 @@
     <t>04</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>06</t>
   </si>
   <si>
@@ -197,6 +239,9 @@
     <t>04</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>03</t>
   </si>
   <si>
@@ -212,6 +257,9 @@
     <t>01</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>09</t>
   </si>
   <si>
@@ -221,6 +269,9 @@
     <t>14</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>06</t>
   </si>
   <si>
@@ -233,6 +284,9 @@
     <t>03</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>05</t>
   </si>
   <si>
@@ -245,6 +299,9 @@
     <t>04</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>03</t>
   </si>
   <si>
@@ -257,6 +314,9 @@
     <t>01</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>03</t>
   </si>
   <si>
@@ -269,6 +329,9 @@
     <t>99</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>02</t>
   </si>
   <si>
@@ -281,6 +344,9 @@
     <t>10</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>06</t>
   </si>
   <si>
@@ -293,6 +359,9 @@
     <t>99</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>03</t>
   </si>
   <si>
@@ -305,6 +374,9 @@
     <t>03</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>06</t>
   </si>
   <si>
@@ -317,6 +389,9 @@
     <t>04</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>02</t>
   </si>
   <si>
@@ -329,6 +404,9 @@
     <t>10</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>02</t>
   </si>
   <si>
@@ -341,6 +419,9 @@
     <t>04</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>03</t>
   </si>
   <si>
@@ -356,6 +437,9 @@
     <t>01</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
@@ -365,6 +449,9 @@
     <t>03</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>02</t>
   </si>
   <si>
@@ -380,6 +467,9 @@
     <t>01</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>08</t>
   </si>
   <si>
@@ -389,6 +479,9 @@
     <t>03</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>05</t>
   </si>
   <si>
@@ -401,6 +494,9 @@
     <t>99</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>03</t>
   </si>
   <si>
@@ -416,6 +512,9 @@
     <t>01</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>09</t>
   </si>
   <si>
@@ -428,6 +527,9 @@
     <t>01</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>09</t>
   </si>
   <si>
@@ -437,6 +539,9 @@
     <t>01</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>04</t>
   </si>
   <si>
@@ -449,6 +554,9 @@
     <t>04</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>02</t>
   </si>
   <si>
@@ -461,6 +569,9 @@
     <t>14</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>05</t>
   </si>
   <si>
@@ -473,6 +584,9 @@
     <t>14</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>09</t>
   </si>
   <si>
@@ -485,6 +599,9 @@
     <t>03</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>02</t>
   </si>
   <si>
@@ -497,6 +614,9 @@
     <t>04</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>02</t>
   </si>
   <si>
@@ -509,6 +629,9 @@
     <t>99</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>03</t>
   </si>
   <si>
@@ -521,6 +644,9 @@
     <t>14</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>05</t>
   </si>
   <si>
@@ -533,6 +659,9 @@
     <t>04</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>06</t>
   </si>
   <si>
@@ -545,6 +674,9 @@
     <t>14</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>02</t>
   </si>
   <si>
@@ -557,6 +689,9 @@
     <t>01</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>04</t>
   </si>
   <si>
@@ -569,6 +704,9 @@
     <t>03</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>04</t>
   </si>
   <si>
@@ -581,6 +719,9 @@
     <t>01</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>09</t>
   </si>
   <si>
@@ -593,6 +734,9 @@
     <t>99</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>09</t>
   </si>
   <si>
@@ -605,6 +749,9 @@
     <t>04</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>05</t>
   </si>
   <si>
@@ -617,6 +764,9 @@
     <t>14</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>04</t>
   </si>
   <si>
@@ -629,6 +779,9 @@
     <t>01</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>03</t>
   </si>
   <si>
@@ -641,6 +794,9 @@
     <t>04</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>04</t>
   </si>
   <si>
@@ -656,6 +812,9 @@
     <t>01</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>09</t>
   </si>
   <si>
@@ -665,6 +824,9 @@
     <t>03</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>06</t>
   </si>
   <si>
@@ -677,6 +839,9 @@
     <t>01</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>04</t>
   </si>
   <si>
@@ -689,6 +854,9 @@
     <t>14</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>09</t>
   </si>
   <si>
@@ -701,6 +869,9 @@
     <t>99</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>02</t>
   </si>
   <si>
@@ -713,6 +884,9 @@
     <t>99</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>02</t>
   </si>
   <si>
@@ -725,6 +899,9 @@
     <t>01</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>02</t>
   </si>
   <si>
@@ -737,6 +914,9 @@
     <t>01</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>06</t>
   </si>
   <si>
@@ -749,6 +929,9 @@
     <t>99</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>04</t>
   </si>
   <si>
@@ -761,6 +944,9 @@
     <t>99</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>04</t>
   </si>
   <si>
@@ -776,6 +962,9 @@
     <t>01</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
@@ -785,6 +974,9 @@
     <t>10</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>03</t>
   </si>
   <si>
@@ -797,6 +989,9 @@
     <t>10</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>02</t>
   </si>
   <si>
@@ -809,6 +1004,9 @@
     <t>04</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>04</t>
   </si>
   <si>
@@ -821,6 +1019,9 @@
     <t>99</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>06</t>
   </si>
   <si>
@@ -833,6 +1034,9 @@
     <t>14</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>05</t>
   </si>
   <si>
@@ -845,6 +1049,9 @@
     <t>01</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>04</t>
   </si>
   <si>
@@ -857,6 +1064,9 @@
     <t>04</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>09</t>
   </si>
   <si>
@@ -872,6 +1082,9 @@
     <t>01</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>08</t>
   </si>
   <si>
@@ -884,6 +1097,9 @@
     <t>01</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
@@ -896,6 +1112,9 @@
     <t>01</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
@@ -905,6 +1124,9 @@
     <t>04</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>03</t>
   </si>
   <si>
@@ -920,6 +1142,9 @@
     <t>01</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>09</t>
   </si>
   <si>
@@ -929,6 +1154,9 @@
     <t>04</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>05</t>
   </si>
   <si>
@@ -941,6 +1169,9 @@
     <t>99</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>02</t>
   </si>
   <si>
@@ -953,6 +1184,9 @@
     <t>03</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>09</t>
   </si>
   <si>
@@ -965,6 +1199,9 @@
     <t>14</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>09</t>
   </si>
   <si>
@@ -980,6 +1217,9 @@
     <t>01</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>09</t>
   </si>
   <si>
@@ -987,6 +1227,9 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>01</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:F81"/>
   <sheetData>
     <row r="1" ht="15">
       <c r="A1" t="s">
@@ -1356,1364 +1599,1607 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" ht="15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
         <v>1490752</v>
       </c>
     </row>
     <row r="3" ht="15">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
         <v>1244518</v>
       </c>
     </row>
     <row r="4" ht="15">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4">
         <v>243060645</v>
       </c>
     </row>
     <row r="5" ht="15">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5">
         <v>39456246</v>
       </c>
     </row>
     <row r="6" ht="15">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6">
         <v>53910476</v>
       </c>
     </row>
     <row r="7" ht="15">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7">
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="15">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
     </row>
     <row r="9" ht="15">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9">
         <v>45234534</v>
       </c>
     </row>
     <row r="10" ht="15">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10">
         <v>20426</v>
       </c>
     </row>
     <row r="11" ht="15">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11">
         <v>6987467</v>
       </c>
     </row>
     <row r="12" ht="15">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12">
         <v>3260588</v>
       </c>
     </row>
     <row r="13" ht="15">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13">
         <v>54008630</v>
       </c>
     </row>
     <row r="14" ht="15">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14">
         <v>2099315</v>
       </c>
     </row>
     <row r="15" ht="15">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15">
+        <v>74</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15">
         <v>117688</v>
       </c>
     </row>
     <row r="16" ht="15">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16">
         <v>0</v>
       </c>
     </row>
     <row r="17" ht="15">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17">
         <v>109187564</v>
       </c>
     </row>
     <row r="18" ht="15">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18">
+        <v>89</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18">
         <v>307498</v>
       </c>
     </row>
     <row r="19" ht="15">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19">
+        <v>94</v>
+      </c>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19">
         <v>20769874</v>
       </c>
     </row>
     <row r="20" ht="15">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20">
+        <v>99</v>
+      </c>
+      <c r="E20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20">
         <v>38359695</v>
       </c>
     </row>
     <row r="21" ht="15">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21">
+        <v>104</v>
+      </c>
+      <c r="E21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21">
         <v>1142601</v>
       </c>
     </row>
     <row r="22" ht="15">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22">
+        <v>109</v>
+      </c>
+      <c r="E22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22">
         <v>234990</v>
       </c>
     </row>
     <row r="23" ht="15">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23">
+        <v>114</v>
+      </c>
+      <c r="E23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23">
         <v>70068083</v>
       </c>
     </row>
     <row r="24" ht="15">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24">
+        <v>119</v>
+      </c>
+      <c r="E24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24">
         <v>2696065</v>
       </c>
     </row>
     <row r="25" ht="15">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25">
+        <v>124</v>
+      </c>
+      <c r="E25" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25">
         <v>108061538</v>
       </c>
     </row>
     <row r="26" ht="15">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26">
+        <v>129</v>
+      </c>
+      <c r="E26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26">
         <v>1022500</v>
       </c>
     </row>
     <row r="27" ht="15">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27">
+        <v>134</v>
+      </c>
+      <c r="E27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27">
         <v>38406770</v>
       </c>
     </row>
     <row r="28" ht="15">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="D28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28">
+        <v>139</v>
+      </c>
+      <c r="E28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28">
         <v>418814</v>
       </c>
     </row>
     <row r="29" ht="15">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29">
+        <v>144</v>
+      </c>
+      <c r="E29" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29">
         <v>368050</v>
       </c>
     </row>
     <row r="30" ht="15">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
-      </c>
-      <c r="E30">
+        <v>149</v>
+      </c>
+      <c r="E30" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30">
         <v>52237090</v>
       </c>
     </row>
     <row r="31" ht="15">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
-      </c>
-      <c r="E31">
+        <v>154</v>
+      </c>
+      <c r="E31" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31">
         <v>0</v>
       </c>
     </row>
     <row r="32" ht="15">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
-      </c>
-      <c r="E32">
+        <v>159</v>
+      </c>
+      <c r="E32" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32">
         <v>598392</v>
       </c>
     </row>
     <row r="33" ht="15">
       <c r="A33" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
-      </c>
-      <c r="E33">
+        <v>164</v>
+      </c>
+      <c r="E33" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33">
         <v>164795160</v>
       </c>
     </row>
     <row r="34" ht="15">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="C34" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="D34" t="s">
-        <v>136</v>
-      </c>
-      <c r="E34">
+        <v>169</v>
+      </c>
+      <c r="E34" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34">
         <v>66208666</v>
       </c>
     </row>
     <row r="35" ht="15">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="D35" t="s">
-        <v>140</v>
-      </c>
-      <c r="E35">
+        <v>174</v>
+      </c>
+      <c r="E35" t="s">
+        <v>175</v>
+      </c>
+      <c r="F35">
         <v>240592303</v>
       </c>
     </row>
     <row r="36" ht="15">
       <c r="A36" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="C36" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
-      </c>
-      <c r="E36">
+        <v>179</v>
+      </c>
+      <c r="E36" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36">
         <v>0</v>
       </c>
     </row>
     <row r="37" ht="15">
       <c r="A37" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="B37" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="C37" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="D37" t="s">
-        <v>148</v>
-      </c>
-      <c r="E37">
+        <v>184</v>
+      </c>
+      <c r="E37" t="s">
+        <v>185</v>
+      </c>
+      <c r="F37">
         <v>167787850</v>
       </c>
     </row>
     <row r="38" ht="15">
       <c r="A38" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="B38" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="C38" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
-      </c>
-      <c r="E38">
+        <v>189</v>
+      </c>
+      <c r="E38" t="s">
+        <v>190</v>
+      </c>
+      <c r="F38">
         <v>3222332</v>
       </c>
     </row>
     <row r="39" ht="15">
       <c r="A39" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="B39" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="C39" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="D39" t="s">
-        <v>156</v>
-      </c>
-      <c r="E39">
+        <v>194</v>
+      </c>
+      <c r="E39" t="s">
+        <v>195</v>
+      </c>
+      <c r="F39">
         <v>279470</v>
       </c>
     </row>
     <row r="40" ht="15">
       <c r="A40" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="B40" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="C40" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="D40" t="s">
-        <v>160</v>
-      </c>
-      <c r="E40">
+        <v>199</v>
+      </c>
+      <c r="E40" t="s">
+        <v>200</v>
+      </c>
+      <c r="F40">
         <v>254496925</v>
       </c>
     </row>
     <row r="41" ht="15">
       <c r="A41" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="B41" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="C41" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="D41" t="s">
-        <v>164</v>
-      </c>
-      <c r="E41">
+        <v>204</v>
+      </c>
+      <c r="E41" t="s">
+        <v>205</v>
+      </c>
+      <c r="F41">
         <v>51038272</v>
       </c>
     </row>
     <row r="42" ht="15">
       <c r="A42" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="B42" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="C42" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="D42" t="s">
-        <v>168</v>
-      </c>
-      <c r="E42">
+        <v>209</v>
+      </c>
+      <c r="E42" t="s">
+        <v>210</v>
+      </c>
+      <c r="F42">
         <v>9282148</v>
       </c>
     </row>
     <row r="43" ht="15">
       <c r="A43" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="B43" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="C43" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="D43" t="s">
-        <v>172</v>
-      </c>
-      <c r="E43">
+        <v>214</v>
+      </c>
+      <c r="E43" t="s">
+        <v>215</v>
+      </c>
+      <c r="F43">
         <v>1494638</v>
       </c>
     </row>
     <row r="44" ht="15">
       <c r="A44" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="B44" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="C44" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="D44" t="s">
-        <v>176</v>
-      </c>
-      <c r="E44">
+        <v>219</v>
+      </c>
+      <c r="E44" t="s">
+        <v>220</v>
+      </c>
+      <c r="F44">
         <v>5431307</v>
       </c>
     </row>
     <row r="45" ht="15">
       <c r="A45" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="B45" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="C45" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="D45" t="s">
-        <v>180</v>
-      </c>
-      <c r="E45">
+        <v>224</v>
+      </c>
+      <c r="E45" t="s">
+        <v>225</v>
+      </c>
+      <c r="F45">
         <v>606424774</v>
       </c>
     </row>
     <row r="46" ht="15">
       <c r="A46" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="B46" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="C46" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="D46" t="s">
-        <v>184</v>
-      </c>
-      <c r="E46">
+        <v>229</v>
+      </c>
+      <c r="E46" t="s">
+        <v>230</v>
+      </c>
+      <c r="F46">
         <v>631662</v>
       </c>
     </row>
     <row r="47" ht="15">
       <c r="A47" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="B47" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="C47" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="D47" t="s">
-        <v>188</v>
-      </c>
-      <c r="E47">
+        <v>234</v>
+      </c>
+      <c r="E47" t="s">
+        <v>235</v>
+      </c>
+      <c r="F47">
         <v>90478509</v>
       </c>
     </row>
     <row r="48" ht="15">
       <c r="A48" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="B48" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="C48" t="s">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c r="D48" t="s">
-        <v>192</v>
-      </c>
-      <c r="E48">
+        <v>239</v>
+      </c>
+      <c r="E48" t="s">
+        <v>240</v>
+      </c>
+      <c r="F48">
         <v>6939588</v>
       </c>
     </row>
     <row r="49" ht="15">
       <c r="A49" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="B49" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="C49" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="D49" t="s">
-        <v>196</v>
-      </c>
-      <c r="E49">
+        <v>244</v>
+      </c>
+      <c r="E49" t="s">
+        <v>245</v>
+      </c>
+      <c r="F49">
         <v>9402023</v>
       </c>
     </row>
     <row r="50" ht="15">
       <c r="A50" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="B50" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="C50" t="s">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="D50" t="s">
-        <v>200</v>
-      </c>
-      <c r="E50">
+        <v>249</v>
+      </c>
+      <c r="E50" t="s">
+        <v>250</v>
+      </c>
+      <c r="F50">
         <v>1580475</v>
       </c>
     </row>
     <row r="51" ht="15">
       <c r="A51" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="B51" t="s">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="C51" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="D51" t="s">
-        <v>204</v>
-      </c>
-      <c r="E51">
+        <v>254</v>
+      </c>
+      <c r="E51" t="s">
+        <v>255</v>
+      </c>
+      <c r="F51">
         <v>2196135</v>
       </c>
     </row>
     <row r="52" ht="15">
       <c r="A52" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="B52" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="C52" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="D52" t="s">
-        <v>208</v>
-      </c>
-      <c r="E52">
+        <v>259</v>
+      </c>
+      <c r="E52" t="s">
+        <v>260</v>
+      </c>
+      <c r="F52">
         <v>75000</v>
       </c>
     </row>
     <row r="53" ht="15">
       <c r="A53" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="B53" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="C53" t="s">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="D53" t="s">
-        <v>212</v>
-      </c>
-      <c r="E53">
+        <v>264</v>
+      </c>
+      <c r="E53" t="s">
+        <v>265</v>
+      </c>
+      <c r="F53">
         <v>3584913</v>
       </c>
     </row>
     <row r="54" ht="15">
       <c r="A54" t="s">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="B54" t="s">
-        <v>214</v>
+        <v>267</v>
       </c>
       <c r="C54" t="s">
-        <v>215</v>
+        <v>268</v>
       </c>
       <c r="D54" t="s">
-        <v>216</v>
-      </c>
-      <c r="E54">
+        <v>269</v>
+      </c>
+      <c r="E54" t="s">
+        <v>270</v>
+      </c>
+      <c r="F54">
         <v>389373</v>
       </c>
     </row>
     <row r="55" ht="15">
       <c r="A55" t="s">
-        <v>217</v>
+        <v>271</v>
       </c>
       <c r="B55" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="C55" t="s">
-        <v>219</v>
+        <v>273</v>
       </c>
       <c r="D55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E55">
+        <v>274</v>
+      </c>
+      <c r="E55" t="s">
+        <v>275</v>
+      </c>
+      <c r="F55">
         <v>87945945</v>
       </c>
     </row>
     <row r="56" ht="15">
       <c r="A56" t="s">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c r="B56" t="s">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="C56" t="s">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="D56" t="s">
-        <v>224</v>
-      </c>
-      <c r="E56">
+        <v>279</v>
+      </c>
+      <c r="E56" t="s">
+        <v>280</v>
+      </c>
+      <c r="F56">
         <v>17210870</v>
       </c>
     </row>
     <row r="57" ht="15">
       <c r="A57" t="s">
-        <v>225</v>
+        <v>281</v>
       </c>
       <c r="B57" t="s">
-        <v>226</v>
+        <v>282</v>
       </c>
       <c r="C57" t="s">
-        <v>227</v>
+        <v>283</v>
       </c>
       <c r="D57" t="s">
-        <v>228</v>
-      </c>
-      <c r="E57">
+        <v>284</v>
+      </c>
+      <c r="E57" t="s">
+        <v>285</v>
+      </c>
+      <c r="F57">
         <v>12235</v>
       </c>
     </row>
     <row r="58" ht="15">
       <c r="A58" t="s">
-        <v>229</v>
+        <v>286</v>
       </c>
       <c r="B58" t="s">
-        <v>230</v>
+        <v>287</v>
       </c>
       <c r="C58" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="D58" t="s">
-        <v>232</v>
-      </c>
-      <c r="E58">
+        <v>289</v>
+      </c>
+      <c r="E58" t="s">
+        <v>290</v>
+      </c>
+      <c r="F58">
         <v>67024845</v>
       </c>
     </row>
     <row r="59" ht="15">
       <c r="A59" t="s">
-        <v>233</v>
+        <v>291</v>
       </c>
       <c r="B59" t="s">
-        <v>234</v>
+        <v>292</v>
       </c>
       <c r="C59" t="s">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="D59" t="s">
-        <v>236</v>
-      </c>
-      <c r="E59">
+        <v>294</v>
+      </c>
+      <c r="E59" t="s">
+        <v>295</v>
+      </c>
+      <c r="F59">
         <v>53954980</v>
       </c>
     </row>
     <row r="60" ht="15">
       <c r="A60" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="B60" t="s">
-        <v>238</v>
+        <v>297</v>
       </c>
       <c r="C60" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="D60" t="s">
-        <v>240</v>
-      </c>
-      <c r="E60">
+        <v>299</v>
+      </c>
+      <c r="E60" t="s">
+        <v>300</v>
+      </c>
+      <c r="F60">
         <v>406719936</v>
       </c>
     </row>
     <row r="61" ht="15">
       <c r="A61" t="s">
-        <v>241</v>
+        <v>301</v>
       </c>
       <c r="B61" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
       <c r="C61" t="s">
-        <v>243</v>
+        <v>303</v>
       </c>
       <c r="D61" t="s">
-        <v>244</v>
-      </c>
-      <c r="E61">
+        <v>304</v>
+      </c>
+      <c r="E61" t="s">
+        <v>305</v>
+      </c>
+      <c r="F61">
         <v>5237612</v>
       </c>
     </row>
     <row r="62" ht="15">
       <c r="A62" t="s">
-        <v>245</v>
+        <v>306</v>
       </c>
       <c r="B62" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="C62" t="s">
-        <v>247</v>
+        <v>308</v>
       </c>
       <c r="D62" t="s">
-        <v>248</v>
-      </c>
-      <c r="E62">
+        <v>309</v>
+      </c>
+      <c r="E62" t="s">
+        <v>310</v>
+      </c>
+      <c r="F62">
         <v>11279609</v>
       </c>
     </row>
     <row r="63" ht="15">
       <c r="A63" t="s">
-        <v>249</v>
+        <v>311</v>
       </c>
       <c r="B63" t="s">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="C63" t="s">
-        <v>251</v>
+        <v>313</v>
       </c>
       <c r="D63" t="s">
-        <v>252</v>
-      </c>
-      <c r="E63">
+        <v>314</v>
+      </c>
+      <c r="E63" t="s">
+        <v>315</v>
+      </c>
+      <c r="F63">
         <v>574272</v>
       </c>
     </row>
     <row r="64" ht="15">
       <c r="A64" t="s">
-        <v>253</v>
+        <v>316</v>
       </c>
       <c r="B64" t="s">
-        <v>254</v>
+        <v>317</v>
       </c>
       <c r="C64" t="s">
-        <v>255</v>
+        <v>318</v>
       </c>
       <c r="D64" t="s">
-        <v>256</v>
-      </c>
-      <c r="E64">
+        <v>319</v>
+      </c>
+      <c r="E64" t="s">
+        <v>320</v>
+      </c>
+      <c r="F64">
         <v>0</v>
       </c>
     </row>
     <row r="65" ht="15">
       <c r="A65" t="s">
-        <v>257</v>
+        <v>321</v>
       </c>
       <c r="B65" t="s">
-        <v>258</v>
+        <v>322</v>
       </c>
       <c r="C65" t="s">
-        <v>259</v>
+        <v>323</v>
       </c>
       <c r="D65" t="s">
-        <v>260</v>
-      </c>
-      <c r="E65">
+        <v>324</v>
+      </c>
+      <c r="E65" t="s">
+        <v>325</v>
+      </c>
+      <c r="F65">
         <v>0</v>
       </c>
     </row>
     <row r="66" ht="15">
       <c r="A66" t="s">
-        <v>261</v>
+        <v>326</v>
       </c>
       <c r="B66" t="s">
-        <v>262</v>
+        <v>327</v>
       </c>
       <c r="C66" t="s">
-        <v>263</v>
+        <v>328</v>
       </c>
       <c r="D66" t="s">
-        <v>264</v>
-      </c>
-      <c r="E66">
+        <v>329</v>
+      </c>
+      <c r="E66" t="s">
+        <v>330</v>
+      </c>
+      <c r="F66">
         <v>540226915</v>
       </c>
     </row>
     <row r="67" ht="15">
       <c r="A67" t="s">
-        <v>265</v>
+        <v>331</v>
       </c>
       <c r="B67" t="s">
-        <v>266</v>
+        <v>332</v>
       </c>
       <c r="C67" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="D67" t="s">
-        <v>268</v>
-      </c>
-      <c r="E67">
+        <v>334</v>
+      </c>
+      <c r="E67" t="s">
+        <v>335</v>
+      </c>
+      <c r="F67">
         <v>57916479</v>
       </c>
     </row>
     <row r="68" ht="15">
       <c r="A68" t="s">
-        <v>269</v>
+        <v>336</v>
       </c>
       <c r="B68" t="s">
-        <v>270</v>
+        <v>337</v>
       </c>
       <c r="C68" t="s">
-        <v>271</v>
+        <v>338</v>
       </c>
       <c r="D68" t="s">
-        <v>272</v>
-      </c>
-      <c r="E68">
+        <v>339</v>
+      </c>
+      <c r="E68" t="s">
+        <v>340</v>
+      </c>
+      <c r="F68">
         <v>18536339</v>
       </c>
     </row>
     <row r="69" ht="15">
       <c r="A69" t="s">
-        <v>273</v>
+        <v>341</v>
       </c>
       <c r="B69" t="s">
-        <v>274</v>
+        <v>342</v>
       </c>
       <c r="C69" t="s">
-        <v>275</v>
+        <v>343</v>
       </c>
       <c r="D69" t="s">
-        <v>276</v>
-      </c>
-      <c r="E69">
+        <v>344</v>
+      </c>
+      <c r="E69" t="s">
+        <v>345</v>
+      </c>
+      <c r="F69">
         <v>9602359</v>
       </c>
     </row>
     <row r="70" ht="15">
       <c r="A70" t="s">
-        <v>277</v>
+        <v>346</v>
       </c>
       <c r="B70" t="s">
-        <v>278</v>
+        <v>347</v>
       </c>
       <c r="C70" t="s">
-        <v>279</v>
+        <v>348</v>
       </c>
       <c r="D70" t="s">
-        <v>280</v>
-      </c>
-      <c r="E70">
+        <v>349</v>
+      </c>
+      <c r="E70" t="s">
+        <v>350</v>
+      </c>
+      <c r="F70">
         <v>85837031</v>
       </c>
     </row>
     <row r="71" ht="15">
       <c r="A71" t="s">
-        <v>281</v>
+        <v>351</v>
       </c>
       <c r="B71" t="s">
-        <v>282</v>
+        <v>352</v>
       </c>
       <c r="C71" t="s">
-        <v>283</v>
+        <v>353</v>
       </c>
       <c r="D71" t="s">
-        <v>284</v>
-      </c>
-      <c r="E71">
+        <v>354</v>
+      </c>
+      <c r="E71" t="s">
+        <v>355</v>
+      </c>
+      <c r="F71">
         <v>14911</v>
       </c>
     </row>
     <row r="72" ht="15">
       <c r="A72" t="s">
-        <v>285</v>
+        <v>356</v>
       </c>
       <c r="B72" t="s">
-        <v>286</v>
+        <v>357</v>
       </c>
       <c r="C72" t="s">
-        <v>287</v>
+        <v>358</v>
       </c>
       <c r="D72" t="s">
-        <v>288</v>
-      </c>
-      <c r="E72">
+        <v>359</v>
+      </c>
+      <c r="E72" t="s">
+        <v>360</v>
+      </c>
+      <c r="F72">
         <v>358028</v>
       </c>
     </row>
     <row r="73" ht="15">
       <c r="A73" t="s">
-        <v>289</v>
+        <v>361</v>
       </c>
       <c r="B73" t="s">
-        <v>290</v>
+        <v>362</v>
       </c>
       <c r="C73" t="s">
-        <v>291</v>
+        <v>363</v>
       </c>
       <c r="D73" t="s">
-        <v>292</v>
-      </c>
-      <c r="E73">
+        <v>364</v>
+      </c>
+      <c r="E73" t="s">
+        <v>365</v>
+      </c>
+      <c r="F73">
         <v>20254555</v>
       </c>
     </row>
     <row r="74" ht="15">
       <c r="A74" t="s">
-        <v>293</v>
+        <v>366</v>
       </c>
       <c r="B74" t="s">
-        <v>294</v>
+        <v>367</v>
       </c>
       <c r="C74" t="s">
-        <v>295</v>
+        <v>368</v>
       </c>
       <c r="D74" t="s">
-        <v>296</v>
-      </c>
-      <c r="E74">
+        <v>369</v>
+      </c>
+      <c r="E74" t="s">
+        <v>370</v>
+      </c>
+      <c r="F74">
         <v>16084315</v>
       </c>
     </row>
     <row r="75" ht="15">
       <c r="A75" t="s">
-        <v>297</v>
+        <v>371</v>
       </c>
       <c r="B75" t="s">
-        <v>298</v>
+        <v>372</v>
       </c>
       <c r="C75" t="s">
-        <v>299</v>
+        <v>373</v>
       </c>
       <c r="D75" t="s">
-        <v>300</v>
-      </c>
-      <c r="E75">
+        <v>374</v>
+      </c>
+      <c r="E75" t="s">
+        <v>375</v>
+      </c>
+      <c r="F75">
         <v>207988793</v>
       </c>
     </row>
     <row r="76" ht="15">
       <c r="A76" t="s">
-        <v>301</v>
+        <v>376</v>
       </c>
       <c r="B76" t="s">
-        <v>302</v>
+        <v>377</v>
       </c>
       <c r="C76" t="s">
-        <v>303</v>
+        <v>378</v>
       </c>
       <c r="D76" t="s">
-        <v>304</v>
-      </c>
-      <c r="E76">
+        <v>379</v>
+      </c>
+      <c r="E76" t="s">
+        <v>380</v>
+      </c>
+      <c r="F76">
         <v>155349002</v>
       </c>
     </row>
     <row r="77" ht="15">
       <c r="A77" t="s">
-        <v>305</v>
+        <v>381</v>
       </c>
       <c r="B77" t="s">
-        <v>306</v>
+        <v>382</v>
       </c>
       <c r="C77" t="s">
-        <v>307</v>
+        <v>383</v>
       </c>
       <c r="D77" t="s">
-        <v>308</v>
-      </c>
-      <c r="E77">
+        <v>384</v>
+      </c>
+      <c r="E77" t="s">
+        <v>385</v>
+      </c>
+      <c r="F77">
         <v>12419814</v>
       </c>
     </row>
     <row r="78" ht="15">
       <c r="A78" t="s">
-        <v>309</v>
+        <v>386</v>
       </c>
       <c r="B78" t="s">
-        <v>310</v>
+        <v>387</v>
       </c>
       <c r="C78" t="s">
-        <v>311</v>
+        <v>388</v>
       </c>
       <c r="D78" t="s">
-        <v>312</v>
-      </c>
-      <c r="E78">
+        <v>389</v>
+      </c>
+      <c r="E78" t="s">
+        <v>390</v>
+      </c>
+      <c r="F78">
         <v>6822430</v>
       </c>
     </row>
     <row r="79" ht="15">
       <c r="A79" t="s">
-        <v>313</v>
+        <v>391</v>
       </c>
       <c r="B79" t="s">
-        <v>314</v>
+        <v>392</v>
       </c>
       <c r="C79" t="s">
-        <v>315</v>
+        <v>393</v>
       </c>
       <c r="D79" t="s">
-        <v>316</v>
-      </c>
-      <c r="E79">
+        <v>394</v>
+      </c>
+      <c r="E79" t="s">
+        <v>395</v>
+      </c>
+      <c r="F79">
         <v>6092418</v>
       </c>
     </row>
     <row r="80" ht="15">
       <c r="A80" t="s">
-        <v>317</v>
+        <v>396</v>
       </c>
       <c r="B80" t="s">
-        <v>318</v>
+        <v>397</v>
       </c>
       <c r="C80" t="s">
-        <v>319</v>
+        <v>398</v>
       </c>
       <c r="D80" t="s">
-        <v>320</v>
-      </c>
-      <c r="E80">
+        <v>399</v>
+      </c>
+      <c r="E80" t="s">
+        <v>400</v>
+      </c>
+      <c r="F80">
         <v>14108411</v>
       </c>
     </row>
     <row r="81" ht="15">
       <c r="A81" t="s">
-        <v>321</v>
+        <v>401</v>
       </c>
       <c r="B81" t="s">
-        <v>322</v>
+        <v>402</v>
       </c>
       <c r="C81" t="s">
-        <v>323</v>
+        <v>403</v>
       </c>
       <c r="D81" t="s">
-        <v>324</v>
-      </c>
-      <c r="E81">
+        <v>404</v>
+      </c>
+      <c r="E81" t="s">
+        <v>405</v>
+      </c>
+      <c r="F81">
         <v>400000</v>
       </c>
     </row>
